--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4696.803920816794</v>
+        <v>934663.9802425426</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4696.803920816794</v>
+        <v>934663.9802425426</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96714.31815423984</v>
+        <v>6685139.612216294</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96714.31815423984</v>
+        <v>6685139.612216294</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190934905.30184</v>
+        <v>44949129.92337833</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14915.07239958477</v>
+        <v>1331475.652556548</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26975.57125000107</v>
+        <v>2171239.67898483</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39037.42831315809</v>
+        <v>3011003.705413112</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51139.07508242635</v>
+        <v>3850024.581332639</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63240.72185169459</v>
+        <v>4689045.457252164</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75342.36862096284</v>
+        <v>5528066.333171691</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87444.01539023111</v>
+        <v>6367087.209091213</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99545.66215949938</v>
+        <v>7206108.085010733</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111650.5541915468</v>
+        <v>8040663.134887339</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>123763.7613751093</v>
+        <v>8876872.89991546</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135876.9623659267</v>
+        <v>9713082.664943581</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147990.1695494892</v>
+        <v>10549292.4299717</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160103.3767330517</v>
+        <v>11385502.19499983</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172216.5839166143</v>
+        <v>12221711.96002796</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184329.791100177</v>
+        <v>13057921.72505609</v>
       </c>
     </row>
   </sheetData>
